--- a/docs/downloads/sharepoint-administrator-checklist.xlsx
+++ b/docs/downloads/sharepoint-administrator-checklist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Checklist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Checklist" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -589,8 +590,44 @@
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grounding Scope Governance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Microsoft 365 Copilot Data Governance</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>FSI Agent Governance Framework v1.0 Beta</t>
         </is>

--- a/docs/downloads/sharepoint-administrator-checklist.xlsx
+++ b/docs/downloads/sharepoint-administrator-checklist.xlsx
@@ -467,7 +467,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -624,12 +623,10 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>FSI Agent Governance Framework v1.0 Beta</t>
+          <t>FSI Agent Governance Framework v1.1</t>
         </is>
       </c>
     </row>
